--- a/artfynd/A 27634-2025 artfynd.xlsx
+++ b/artfynd/A 27634-2025 artfynd.xlsx
@@ -1740,7 +1740,7 @@
         <v>126986901</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
